--- a/artfynd/A 58343-2025 artfynd.xlsx
+++ b/artfynd/A 58343-2025 artfynd.xlsx
@@ -1223,7 +1223,7 @@
         <v>129950423</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
